--- a/trunk/modelisator/Gestion de projet/2015_06_10 [Modelisator] Step 4/2015_06_10 [Modelisator] Todo list.xlsx
+++ b/trunk/modelisator/Gestion de projet/2015_06_10 [Modelisator] Step 4/2015_06_10 [Modelisator] Todo list.xlsx
@@ -189,9 +189,6 @@
     <t>Analyse Technique</t>
   </si>
   <si>
-    <t>Rapport fonctionnelle + maquettage écran</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rapport technique + spécifications </t>
   </si>
   <si>
@@ -346,6 +343,9 @@
   </si>
   <si>
     <t>TODO list on 10/06/2015</t>
+  </si>
+  <si>
+    <t>Rapport fonctionnelle + UseCase+ maquettage écran</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1048,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance légende Les 4 * 100% 41</c:v>
+                  <c:v>Assistance et maintenance légende Les 4 * 100% 42,5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1195,11 +1195,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="136527360"/>
-        <c:axId val="93591744"/>
+        <c:axId val="74389504"/>
+        <c:axId val="96850432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136527360"/>
+        <c:axId val="74389504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,7 +1209,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93591744"/>
+        <c:crossAx val="96850432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1217,7 +1217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93591744"/>
+        <c:axId val="96850432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1228,7 +1228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136527360"/>
+        <c:crossAx val="74389504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1277,7 +1277,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance légende Les 4 * 100% 41</c:v>
+                  <c:v>Assistance et maintenance légende Les 4 * 100% 42,5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1424,11 +1424,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="144738304"/>
-        <c:axId val="145031168"/>
+        <c:axId val="88016384"/>
+        <c:axId val="96852160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144738304"/>
+        <c:axId val="88016384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1438,7 +1438,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145031168"/>
+        <c:crossAx val="96852160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1446,7 +1446,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145031168"/>
+        <c:axId val="96852160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,7 +1457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144738304"/>
+        <c:crossAx val="88016384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1506,7 +1506,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance légende Les 4 * 100% 41</c:v>
+                  <c:v>Assistance et maintenance légende Les 4 * 100% 42,5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1653,11 +1653,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="144739840"/>
-        <c:axId val="145032896"/>
+        <c:axId val="88016896"/>
+        <c:axId val="89325568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144739840"/>
+        <c:axId val="88016896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1667,7 +1667,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145032896"/>
+        <c:crossAx val="89325568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1675,7 +1675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145032896"/>
+        <c:axId val="89325568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1686,7 +1686,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144739840"/>
+        <c:crossAx val="88016896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1735,7 +1735,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance légende Les 4 * 100% 41</c:v>
+                  <c:v>Assistance et maintenance légende Les 4 * 100% 42,5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1882,11 +1882,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145716736"/>
-        <c:axId val="145034624"/>
+        <c:axId val="89464832"/>
+        <c:axId val="89327296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145716736"/>
+        <c:axId val="89464832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1896,7 +1896,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145034624"/>
+        <c:crossAx val="89327296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1904,7 +1904,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145034624"/>
+        <c:axId val="89327296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1915,7 +1915,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145716736"/>
+        <c:crossAx val="89464832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1964,7 +1964,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance légende Les 4 * 100% 41</c:v>
+                  <c:v>Assistance et maintenance légende Les 4 * 100% 42,5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2111,11 +2111,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="120261632"/>
-        <c:axId val="145036352"/>
+        <c:axId val="89466368"/>
+        <c:axId val="89329024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120261632"/>
+        <c:axId val="89466368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,7 +2125,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145036352"/>
+        <c:crossAx val="89329024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2133,7 +2133,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145036352"/>
+        <c:axId val="89329024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2144,7 +2144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120261632"/>
+        <c:crossAx val="89466368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2193,7 +2193,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance légende Les 4 * 100% 41</c:v>
+                  <c:v>Assistance et maintenance légende Les 4 * 100% 42,5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2340,11 +2340,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145625088"/>
-        <c:axId val="145038080"/>
+        <c:axId val="89466880"/>
+        <c:axId val="89330752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145625088"/>
+        <c:axId val="89466880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2354,7 +2354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145038080"/>
+        <c:crossAx val="89330752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2362,7 +2362,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145038080"/>
+        <c:axId val="89330752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2373,7 +2373,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145625088"/>
+        <c:crossAx val="89466880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2906,8 +2906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2942,7 +2942,7 @@
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
@@ -2971,7 +2971,7 @@
         <v>42</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>49</v>
@@ -2990,7 +2990,7 @@
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>39</v>
@@ -3045,14 +3045,14 @@
       <c r="A6" s="3"/>
       <c r="B6" s="66"/>
       <c r="C6" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="G6" s="12">
         <v>42145</v>
@@ -3079,7 +3079,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G7" s="12">
         <v>42145</v>
@@ -3099,13 +3099,13 @@
       <c r="A8" s="3"/>
       <c r="B8" s="68"/>
       <c r="C8" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>25</v>
@@ -3127,17 +3127,17 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" s="12">
         <v>42152</v>
@@ -3157,14 +3157,14 @@
       <c r="A10" s="3"/>
       <c r="B10" s="66"/>
       <c r="C10" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="12">
         <v>42152</v>
@@ -3184,14 +3184,14 @@
       <c r="A11" s="3"/>
       <c r="B11" s="66"/>
       <c r="C11" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="12">
         <v>42152</v>
@@ -3211,14 +3211,14 @@
       <c r="A12" s="3"/>
       <c r="B12" s="66"/>
       <c r="C12" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" s="12">
         <v>42152</v>
@@ -3238,16 +3238,16 @@
       <c r="A13" s="3"/>
       <c r="B13" s="66"/>
       <c r="C13" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>105</v>
-      </c>
       <c r="F13" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="12">
         <v>42152</v>
@@ -3267,16 +3267,16 @@
       <c r="A14" s="3"/>
       <c r="B14" s="66"/>
       <c r="C14" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="31">
@@ -3294,13 +3294,13 @@
       <c r="A15" s="3"/>
       <c r="B15" s="68"/>
       <c r="C15" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>25</v>
@@ -3322,7 +3322,7 @@
     <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>52</v>
@@ -3331,14 +3331,14 @@
         <v>53</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="31">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I16" s="17">
         <v>0</v>
@@ -3355,10 +3355,10 @@
         <v>54</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>26</v>
@@ -3378,7 +3378,7 @@
     <row r="18" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>2</v>
@@ -3408,7 +3408,7 @@
       <c r="A19" s="3"/>
       <c r="B19" s="71"/>
       <c r="C19" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>51</v>
@@ -3434,7 +3434,7 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="8"/>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="12"/>
@@ -3617,7 +3617,7 @@
     <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>14</v>
@@ -3644,13 +3644,13 @@
     <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>18</v>
@@ -3671,10 +3671,10 @@
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="11"/>
@@ -3693,10 +3693,10 @@
       <c r="A31" s="3"/>
       <c r="B31" s="66"/>
       <c r="C31" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="9"/>
@@ -3714,10 +3714,10 @@
       <c r="A32" s="3"/>
       <c r="B32" s="66"/>
       <c r="C32" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="9"/>
@@ -3759,10 +3759,10 @@
     <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>48</v>
@@ -3786,10 +3786,10 @@
     <row r="35" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="19" t="s">
@@ -3811,7 +3811,7 @@
     <row r="36" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="3"/>
@@ -3822,7 +3822,7 @@
       <c r="G36" s="60"/>
       <c r="H36" s="33">
         <f>SUM(H4:H35)</f>
-        <v>41</v>
+        <v>42.5</v>
       </c>
       <c r="I36" s="35">
         <f>(SUM(I4:I35)/(COUNT(I4:I35)*3))*3</f>
@@ -3864,10 +3864,10 @@
       <c r="C38" s="6"/>
       <c r="D38" s="64"/>
       <c r="E38" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F38" s="50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>29</v>
@@ -3887,10 +3887,10 @@
       <c r="C39" s="6"/>
       <c r="D39" s="64"/>
       <c r="E39" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F39" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>28</v>
@@ -3910,10 +3910,10 @@
       <c r="C40" s="6"/>
       <c r="D40" s="64"/>
       <c r="E40" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="51" t="s">
         <v>73</v>
-      </c>
-      <c r="F40" s="51" t="s">
-        <v>74</v>
       </c>
       <c r="G40" s="45">
         <v>1</v>
@@ -3933,7 +3933,7 @@
       <c r="C41" s="6"/>
       <c r="D41" s="65"/>
       <c r="E41" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F41" s="52" t="s">
         <v>25</v>

--- a/trunk/modelisator/Gestion de projet/2015_06_10 [Modelisator] Step 4/2015_06_10 [Modelisator] Todo list.xlsx
+++ b/trunk/modelisator/Gestion de projet/2015_06_10 [Modelisator] Step 4/2015_06_10 [Modelisator] Todo list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="4275" yWindow="-180" windowWidth="12390" windowHeight="10050" activeTab="6"/>
@@ -17,7 +17,7 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId8"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1046,9 +1046,24 @@
             <c:strRef>
               <c:f>Feuil1!$B$43:$H$43</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance légende Les 4 * 100% 42,5</c:v>
+                  <c:v>Assistance et maintenance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>légende</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Les 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>*</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42,5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1087,10 +1102,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1159,7 +1174,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0,96875</c:v>
+                  <c:v>1,03125</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -1195,11 +1210,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="74389504"/>
-        <c:axId val="96850432"/>
+        <c:axId val="302136312"/>
+        <c:axId val="302130432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74389504"/>
+        <c:axId val="302136312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,7 +1224,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96850432"/>
+        <c:crossAx val="302130432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1217,7 +1232,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96850432"/>
+        <c:axId val="302130432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1228,7 +1243,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74389504"/>
+        <c:crossAx val="302136312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1275,9 +1290,24 @@
             <c:strRef>
               <c:f>Feuil1!$B$43:$H$43</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance légende Les 4 * 100% 42,5</c:v>
+                  <c:v>Assistance et maintenance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>légende</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Les 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>*</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42,5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1316,10 +1346,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1388,7 +1418,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0,96875</c:v>
+                  <c:v>1,03125</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -1424,11 +1454,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="88016384"/>
-        <c:axId val="96852160"/>
+        <c:axId val="302131608"/>
+        <c:axId val="302132000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88016384"/>
+        <c:axId val="302131608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1438,7 +1468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96852160"/>
+        <c:crossAx val="302132000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1446,7 +1476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96852160"/>
+        <c:axId val="302132000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,7 +1487,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88016384"/>
+        <c:crossAx val="302131608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1504,9 +1534,24 @@
             <c:strRef>
               <c:f>Feuil1!$B$43:$H$43</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance légende Les 4 * 100% 42,5</c:v>
+                  <c:v>Assistance et maintenance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>légende</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Les 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>*</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42,5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1545,10 +1590,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1617,7 +1662,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0,96875</c:v>
+                  <c:v>1,03125</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -1653,11 +1698,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="88016896"/>
-        <c:axId val="89325568"/>
+        <c:axId val="302132784"/>
+        <c:axId val="302133176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88016896"/>
+        <c:axId val="302132784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1667,7 +1712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89325568"/>
+        <c:crossAx val="302133176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1675,7 +1720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89325568"/>
+        <c:axId val="302133176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1686,7 +1731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88016896"/>
+        <c:crossAx val="302132784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1733,9 +1778,24 @@
             <c:strRef>
               <c:f>Feuil1!$B$43:$H$43</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance légende Les 4 * 100% 42,5</c:v>
+                  <c:v>Assistance et maintenance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>légende</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Les 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>*</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42,5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1774,10 +1834,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1846,7 +1906,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0,96875</c:v>
+                  <c:v>1,03125</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -1882,11 +1942,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89464832"/>
-        <c:axId val="89327296"/>
+        <c:axId val="302134352"/>
+        <c:axId val="398404064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89464832"/>
+        <c:axId val="302134352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1896,7 +1956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89327296"/>
+        <c:crossAx val="398404064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1904,7 +1964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89327296"/>
+        <c:axId val="398404064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1915,7 +1975,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89464832"/>
+        <c:crossAx val="302134352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1962,9 +2022,24 @@
             <c:strRef>
               <c:f>Feuil1!$B$43:$H$43</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance légende Les 4 * 100% 42,5</c:v>
+                  <c:v>Assistance et maintenance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>légende</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Les 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>*</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42,5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2003,10 +2078,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -2075,7 +2150,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0,96875</c:v>
+                  <c:v>1,03125</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -2111,11 +2186,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89466368"/>
-        <c:axId val="89329024"/>
+        <c:axId val="398406808"/>
+        <c:axId val="398399360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89466368"/>
+        <c:axId val="398406808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,7 +2200,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89329024"/>
+        <c:crossAx val="398399360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2133,7 +2208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89329024"/>
+        <c:axId val="398399360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2144,7 +2219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89466368"/>
+        <c:crossAx val="398406808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2191,9 +2266,24 @@
             <c:strRef>
               <c:f>Feuil1!$B$43:$H$43</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance légende Les 4 * 100% 42,5</c:v>
+                  <c:v>Assistance et maintenance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>légende</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Les 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>*</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42,5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2232,10 +2322,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -2304,7 +2394,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0,96875</c:v>
+                  <c:v>1,03125</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -2340,11 +2430,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89466880"/>
-        <c:axId val="89330752"/>
+        <c:axId val="398401712"/>
+        <c:axId val="398405632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89466880"/>
+        <c:axId val="398401712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2354,7 +2444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89330752"/>
+        <c:crossAx val="398405632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2362,7 +2452,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89330752"/>
+        <c:axId val="398405632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2373,7 +2463,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89466880"/>
+        <c:crossAx val="398401712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2660,7 +2750,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2695,7 +2785,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2906,8 +2996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3227,7 +3317,7 @@
         <v>0.5</v>
       </c>
       <c r="I12" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -3256,7 +3346,7 @@
         <v>0.5</v>
       </c>
       <c r="I13" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -3826,7 +3916,7 @@
       </c>
       <c r="I36" s="35">
         <f>(SUM(I4:I35)/(COUNT(I4:I35)*3))*3</f>
-        <v>0.96875</v>
+        <v>1.03125</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
